--- a/releases/1.0.0/codelist/predictionfeature-type.xlsx
+++ b/releases/1.0.0/codelist/predictionfeature-type.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Documents\GitHub\MLDCAT-AP\releases\1.0.0\codelist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEEAFBB-D4A9-4066-A57D-022D92D33ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A78FC66-44CF-4416-8749-1883973E33DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{B1CF632B-C499-4CE0-9779-7A3EF7E11CEB}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>dct:title</t>
   </si>
   <si>
-    <t>Predicion Feature type</t>
-  </si>
-  <si>
     <t>dct:description</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Prediction Feature type</t>
   </si>
 </sst>
 </file>
@@ -159,8 +159,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,6 +167,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.8984375" defaultRowHeight="15" customHeight="1"/>
@@ -594,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -613,11 +613,11 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="3"/>
@@ -625,42 +625,42 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="5" t="str">
         <f>CONCATENATE(predictionFeatureTypeScheme,"#",SUBSTITUTE(LOWER(B8), " ", ""))</f>
         <v>http://openml.org/openml/predictionFeature-type#integer</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="5" t="str">
         <f>CONCATENATE(predictionFeatureTypeScheme,"#",SUBSTITUTE(LOWER(B9), " ", ""))</f>
         <v>http://openml.org/openml/predictionFeature-type#numeric</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="5" t="str">
         <f>CONCATENATE(predictionFeatureTypeScheme,"#",SUBSTITUTE(LOWER(B10), " ", ""))</f>
         <v>http://openml.org/openml/predictionFeature-type#string</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
